--- a/documents/外部設計/061225_02_機能一覧_A5.xlsx
+++ b/documents/外部設計/061225_02_機能一覧_A5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F231607E-2EEA-499D-B27B-C3AEB82DCCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4E246-9B70-4E52-BBD9-06DDB71C8912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="6555" windowWidth="21705" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -129,13 +129,6 @@
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>梶川凌</t>
-    <rPh sb="0" eb="3">
-      <t>カジカワリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -334,13 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保留</t>
-    <rPh sb="0" eb="2">
-      <t>ホリュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JavaScript</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,21 +456,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GOT(既GET済)</t>
-    <rPh sb="4" eb="5">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヘッダー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ハンバーガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二上</t>
+    <rPh sb="0" eb="2">
+      <t>フタガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川崎</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青木</t>
+    <rPh sb="0" eb="2">
+      <t>アオキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梶川</t>
+    <rPh sb="0" eb="2">
+      <t>カジカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村井</t>
+    <rPh sb="0" eb="2">
+      <t>ムライ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -587,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,20 +620,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -630,7 +629,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,73 +939,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J56"/>
+  <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="11">
         <v>45820</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1029,525 +1033,571 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="E28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="2">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="2">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="2">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1557,12 +1607,12 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1571,12 +1621,12 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1585,9 +1635,9 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1597,9 +1647,9 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1609,9 +1659,9 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1621,192 +1671,16 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/documents/外部設計/061225_02_機能一覧_A5.xlsx
+++ b/documents/外部設計/061225_02_機能一覧_A5.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4E246-9B70-4E52-BBD9-06DDB71C8912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FE6376-6643-4934-861C-06379991A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="6555" windowWidth="21705" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -456,14 +469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヘッダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハンバーガー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>二上</t>
     <rPh sb="0" eb="2">
       <t>フタガミ</t>
@@ -495,6 +500,41 @@
     <t>村井</t>
     <rPh sb="0" eb="2">
       <t>ムライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店員がPW変更</t>
+    <rPh sb="0" eb="2">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangePWServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET/POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント管理をGETして、変更時はPOST</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヘンコウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -939,26 +979,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J55"/>
+  <dimension ref="B2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
@@ -969,11 +1009,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -988,26 +1028,26 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1041,7 +1081,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>53</v>
@@ -1055,7 +1095,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1063,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -1077,7 +1117,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1085,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>54</v>
@@ -1099,7 +1139,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1107,7 +1147,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
@@ -1121,7 +1161,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -1129,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
@@ -1143,7 +1183,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1151,7 +1191,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -1165,7 +1205,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1173,7 +1213,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>30</v>
@@ -1187,55 +1227,51 @@
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -1243,10 +1279,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>32</v>
@@ -1259,65 +1295,69 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>24</v>
@@ -1325,43 +1365,43 @@
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>24</v>
@@ -1369,29 +1409,29 @@
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1399,21 +1439,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -1421,10 +1461,10 @@
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>37</v>
@@ -1435,55 +1475,51 @@
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -1491,10 +1527,10 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>37</v>
@@ -1507,51 +1543,59 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>24</v>
       </c>
@@ -1559,109 +1603,111 @@
         <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>26</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1671,16 +1717,52 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/documents/外部設計/061225_02_機能一覧_A5.xlsx
+++ b/documents/外部設計/061225_02_機能一覧_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FE6376-6643-4934-861C-06379991A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB7826-4796-4D60-95DF-B9F929688D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -535,6 +535,19 @@
     </rPh>
     <rPh sb="13" eb="16">
       <t>ヘンコウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店長の情報をすべてセッションで保存</t>
+    <rPh sb="0" eb="2">
+      <t>テンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -981,24 +994,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H12" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1026,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1028,26 +1041,26 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1095,7 +1108,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1114,10 +1127,12 @@
       <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1139,7 +1154,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1161,7 +1176,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -1183,7 +1198,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1205,7 +1220,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1227,7 +1242,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -1249,7 +1264,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1271,7 +1286,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -1295,7 +1310,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -1319,7 +1334,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -1343,7 +1358,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -1365,7 +1380,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -1387,7 +1402,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -1409,7 +1424,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -1431,7 +1446,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1453,7 +1468,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -1475,7 +1490,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -1497,7 +1512,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -1519,7 +1534,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -1543,7 +1558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -1569,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>23</v>
       </c>
@@ -1595,7 +1610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>24</v>
       </c>
@@ -1617,7 +1632,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>25</v>
       </c>
@@ -1639,7 +1654,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>26</v>
       </c>
@@ -1661,7 +1676,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>27</v>
       </c>
@@ -1683,7 +1698,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>28</v>
       </c>
@@ -1705,7 +1720,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>28</v>
       </c>
@@ -1717,7 +1732,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>29</v>
       </c>
@@ -1729,7 +1744,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>30</v>
       </c>
@@ -1741,7 +1756,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>31</v>
       </c>
@@ -1753,7 +1768,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>

--- a/documents/外部設計/061225_02_機能一覧_A5.xlsx
+++ b/documents/外部設計/061225_02_機能一覧_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4E246-9B70-4E52-BBD9-06DDB71C8912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91BEC34-E79F-485C-BA67-3363AB9F0316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="6555" windowWidth="21705" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="2220" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,21 +941,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="16.8" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>

--- a/documents/外部設計/061225_02_機能一覧_A5.xlsx
+++ b/documents/外部設計/061225_02_機能一覧_A5.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91BEC34-E79F-485C-BA67-3363AB9F0316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C41C152-9B4C-485A-94B2-B054013E70A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="2220" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="36900" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -941,24 +942,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
@@ -973,7 +974,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -988,26 +989,26 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1055,7 +1056,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1077,7 +1078,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1099,7 +1100,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1121,7 +1122,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -1143,7 +1144,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1165,7 +1166,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1187,7 +1188,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -1211,7 +1212,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1235,7 +1236,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -1259,7 +1260,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -1281,7 +1282,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -1303,7 +1304,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -1325,7 +1326,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -1347,7 +1348,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -1369,7 +1370,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -1391,7 +1392,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1413,7 +1414,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -1435,7 +1436,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -1529,7 +1530,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>23</v>
       </c>
@@ -1551,7 +1552,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>24</v>
       </c>
@@ -1573,7 +1574,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>25</v>
       </c>
@@ -1595,7 +1596,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>26</v>
       </c>
@@ -1607,7 +1608,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>27</v>
       </c>
@@ -1621,7 +1622,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>28</v>
       </c>
@@ -1635,7 +1636,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>29</v>
       </c>
@@ -1647,7 +1648,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>30</v>
       </c>
@@ -1659,7 +1660,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>31</v>
       </c>
@@ -1671,7 +1672,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
